--- a/confusion_matrix.xlsx
+++ b/confusion_matrix.xlsx
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15627,7 +15627,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16528,7 +16528,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16987,7 +16987,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -17004,7 +17004,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -17123,7 +17123,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>

--- a/confusion_matrix.xlsx
+++ b/confusion_matrix.xlsx
@@ -13281,7 +13281,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16052,7 +16052,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>EXTORTION</t>
+          <t>NO EXTORTION</t>
         </is>
       </c>
     </row>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>NO EXTORTION</t>
+          <t>EXTORTION</t>
         </is>
       </c>
     </row>
